--- a/biology/Zoologie/Feliformia/Feliformia.xlsx
+++ b/biology/Zoologie/Feliformia/Feliformia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les féliformes (Feliformia) forment l'un des deux sous-ordres de carnivores, et contient notamment la famille des félins. Leur bulle tympanique est divisée par un septum, contrairement aux caniformes, dont le bulbe tympanique est formé d'une chambre unique ou est divisé par un pseudoseptum. Les griffes des féliformes sont rétractiles (pour la plupart).
 </t>
@@ -513,8 +525,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Liste des familles
-Selon le NCBI [1]:
+          <t>Liste des familles</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon le NCBI :
 famille Nandiniidae Pocock, 1929 : la civette palmiste africaine.
 infra-ordre Feloidea
 famille Felidae Fischer de Waldheim, 1817 : les félins.
@@ -529,8 +546,7 @@
 famille Herpestidae Bonaparte, 1845 : les mangoustes.
 famille Nimravidae Cope, 1880 †
 famille Stenoplesictidae Schlosser, 1923 †
-famille Viverravidae Wortman &amp; Matthew, 1899 †
-Arbre phylogénétique</t>
+famille Viverravidae Wortman &amp; Matthew, 1899 †</t>
         </is>
       </c>
     </row>
